--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1560366-08F3-43A0-9410-45610B46783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D61AB-49B6-4E0F-8C06-1D65EF36F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
     <sheet name="th" sheetId="2" r:id="rId2"/>
     <sheet name="ocr_test" sheetId="3" r:id="rId3"/>
+    <sheet name="traiin" sheetId="4" r:id="rId4"/>
+    <sheet name="102_전후 학습 비교" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,12 +246,61 @@
     <t>imgH = 1110, imgW = 1410 으로 테스트시 가장 비슷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>train.py -&gt; train()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlignCollate_valid = AlignCollate(imgH=opt.imgH, imgW=opt.imgW, keep_ratio_with_pad=opt.PAD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt.imgH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt.imgW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt.imgH = 111.1, opt.imgH = 141.1 로 학습시 더 결과 좋음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTC(Connectionist Temporal Classification) 손실의 특성 중 하나는 중복된 레이블을 처리할 수 있다는 점입니다. 이는 모델이 정확한 정렬을 몰라도 됨으로써 시간적인 변동성을 처리할 수 있는 장점이 있습니다. 그러나 이 특성 때문에 모델은 같은 문자를 여러 번 출력할 수 있습니다. 그 이유는 다음과 같습니다:</t>
+  </si>
+  <si>
+    <t>경로 폭증(Path Explosion):</t>
+  </si>
+  <si>
+    <t>CTC 손실은 가능한 모든 정렬을 고려하므로, 입력 시퀀스에서 특정 레이블이 여러 번 등장하는 경우에도 고려합니다. 따라서 가능한 경로가 폭증할 수 있고, 이는 모델이 같은 레이블을 여러 번 출력하게 될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>레이블 중복 허용:</t>
+  </si>
+  <si>
+    <t>CTC 손실은 레이블 시퀀스에서 중복을 허용합니다. 이는 레이블 시퀀스에서 같은 문자가 여러 번 등장해도 올바른 정렬을 학습할 수 있도록 도와주는 특성입니다.</t>
+  </si>
+  <si>
+    <t>Posterior 확률 분포:</t>
+  </si>
+  <si>
+    <t>CTC 손실을 사용하면 확률 분포의 값이 작을 수록 손실이 커지기 때문에 모델은 레이블을 여러 번 출력함으로써 더 낮은 확률을 가진 경로를 피하려고 합니다.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +323,18 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -335,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,9 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +425,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,6 +456,385 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>388505</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>132574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB7530C-69B4-AADB-ABBD-6DD1424CACF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="1885950"/>
+          <a:ext cx="16161905" cy="6209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB87691-B4B9-B630-C6DF-7EA7224F77BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6715125" y="8801100"/>
+          <a:ext cx="16163925" cy="6210300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10447619</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>151359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD68CF6-E061-FC5C-277C-CAF5307E5C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="209550"/>
+          <a:ext cx="10447619" cy="8323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10276190</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>179931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5D43AF-CB0A-486E-7C6A-525B7BEF66B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="9010650"/>
+          <a:ext cx="10276190" cy="8352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10304762</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>189455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A9C50F-F315-441E-1A28-A81249A95A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="17602200"/>
+          <a:ext cx="10304762" cy="8361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10761905</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>85059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BC1172-BF4F-C2EC-F80A-FCE776810730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="26403300"/>
+          <a:ext cx="10761905" cy="5323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10704762</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>142202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD633A7-AF58-53CE-A466-40B00E8352A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="32061150"/>
+          <a:ext cx="10704762" cy="5380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10066667</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>56409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA3485F-36B1-829F-7888-0F039527D503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="37719000"/>
+          <a:ext cx="10066667" cy="5923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75:J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1519,9 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1101,9 +1557,62 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J75" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J77" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J79" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J80" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J82" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J83" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J85" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1111,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B88D8A2-60F7-4F2C-9569-CDE8242137D4}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1130,25 +1639,19 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1221,7 +1724,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1251,7 +1754,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1264,35 +1767,35 @@
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>1110</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>1410</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>35</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>100</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1300,4 +1803,146 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20349783-5A49-4097-9E8B-77528C253EB5}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="93.75" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>111.1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>141.1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7">
+        <v>100</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC86038-28A6-4022-83F9-39DB158E235D}">
+  <dimension ref="B1:C181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="41.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="143.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>108</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="2">
+        <v>109</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="2">
+        <v>115</v>
+      </c>
+      <c r="C127" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="2">
+        <v>115</v>
+      </c>
+      <c r="C154" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D61AB-49B6-4E0F-8C06-1D65EF36F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE72888-78A2-47A5-BCF6-346652E4C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ocr_test" sheetId="3" r:id="rId3"/>
     <sheet name="traiin" sheetId="4" r:id="rId4"/>
     <sheet name="102_전후 학습 비교" sheetId="5" r:id="rId5"/>
+    <sheet name="104_전후_confidence 비교" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,12 +296,334 @@
   <si>
     <t>CTC 손실을 사용하면 확률 분포의 값이 작을 수록 손실이 커지기 때문에 모델은 레이블을 여러 번 출력함으로써 더 낮은 확률을 가진 경로를 피하려고 합니다.</t>
   </si>
+  <si>
+    <t>criterion = torch.nn.CTCLoss(zero_infinity=True).to(device)</t>
+  </si>
+  <si>
+    <t># CTC 손실 함수의 예시 (하이퍼파라미터 조절 가능)</t>
+  </si>
+  <si>
+    <t># CTC 손실 함수의 하이퍼파라미터를 조절하여 모델이 중복을 허용하지 않도록 강제</t>
+  </si>
+  <si>
+    <t>criterion = torch.nn.CTCLoss(blank=0, zero_infinity=False).to(device)</t>
+  </si>
+  <si>
+    <t>네, 두 번째 CTCLoss 인스턴스에서 blank 매개변수를 0으로 설정하면, 중복된 문자에 대한 손실이 더 커집니다. CTC 손실 함수의 핵심 원리는 출력의 각 타임 스텝이 입력 시퀀스의 어디에 해당하는지를 알 수 없는 상황에서 정렬 문제를 해결하는 것입니다. 이를 위해 빈(blank) 레이블이 사용됩니다.</t>
+  </si>
+  <si>
+    <t>blank 레이블은 입력 시퀀스에서 문자를 나타내지 않는 특별한 레이블이며, CTC 손실은 이 레이블과 함께 정의됩니다. 중복된 문자가 나올 때 blank를 사용하여 중복을 나타내므로, blank 레이블을 적절하게 다루는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>두 번째 CTCLoss에서 blank를 0으로 설정한 경우, 중복된 문자에 대한 손실은 더 커집니다. 이는 중복된 문자 간의 blank 레이블을 사용하여 구분하는 효과가 있습니다. 중복이 발생하면 해당 부분에서 높은 손실이 발생하게 되므로 모델이 중복을 최소화하도록 학습됩니다.</t>
+  </si>
+  <si>
+    <t>한편, 첫 번째 CTCLoss에서는 zero_infinity가 True로 설정되어 있어 무한한 손실값을 0으로 대체하게 되는데, 이는 일종의 안정화 효과를 가져올 수 있습니다. 무한한 손실값이 0으로 대체되면서, 그렇지 않은 경우보다 학습이 더 안정적으로 이루어질 수 있습니다.</t>
+  </si>
+  <si>
+    <t>위에서 "-"는 blank 레이블을 나타냅니다. 여기서 "l" 문자가 중복되었습니다. 이 중복은 blank를 사용하여 나타내어집니다. 이렇게 함으로써, 중복된 문자가 나오면 손실 함수는 중복 부분에서 높은 손실을 계산하여 중복을 최소화하도록 모델을 학습시키게 됩니다.</t>
+  </si>
+  <si>
+    <t>다시 말해, blank 레이블은 중복된 문자의 위치를 모호하게 만들어서 모델이 중복을 최소화하도록 유도하는 역할을 합니다. 이것이 CTC 손실 함수에서 중복 처리의 기본 원리입니다.</t>
+  </si>
+  <si>
+    <t>다음은 중복을 최소화하기 위한 몇 가지 방법입니다:</t>
+  </si>
+  <si>
+    <t>데이터 전처리:</t>
+  </si>
+  <si>
+    <t>학습 데이터에서 중복된 문자를 처리하는 방식을 결정합니다.</t>
+  </si>
+  <si>
+    <t>중복된 문자 간에 blank를 사용하여 나타내도록 합니다.</t>
+  </si>
+  <si>
+    <t>레이블 준비:</t>
+  </si>
+  <si>
+    <t>학습 데이터에서 중복된 문자를 나타내기 위해 특별한 레이블을 사용하도록 합니다.</t>
+  </si>
+  <si>
+    <t>예를 들어, 중복된 문자를 나타내기 위해 "duplicate"와 같은 특수한 문자열을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>이 특수한 레이블은 모델이 중복된 문자를 학습하는 데 도움을 줄 수 있습니다.</t>
+  </si>
+  <si>
+    <t>모델 아키텍처:</t>
+  </si>
+  <si>
+    <t>모델의 아키텍처를 조정하여 중복을 더 잘 처리할 수 있도록 합니다.</t>
+  </si>
+  <si>
+    <t>예를 들어, 더 복잡한 모델이나 attention mechanism을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>하이퍼파라미터 조정:</t>
+  </si>
+  <si>
+    <t>CTC 손실 함수의 하이퍼파라미터를 조정하여 중복을 더 강조하도록 합니다.</t>
+  </si>
+  <si>
+    <t>blank 설정이나 다른 하이퍼파라미터를 실험적으로 조절해보면서 성능을 향상시킬 수 있습니다.</t>
+  </si>
+  <si>
+    <t>다양한 학습 데이터:</t>
+  </si>
+  <si>
+    <t>다양한 중복 패턴을 갖는 학습 데이터를 사용하여 모델이 다양한 상황에서 중복을 잘 처리하도록 합니다.</t>
+  </si>
+  <si>
+    <t>여기서 중요한 점은 중복을 나타내는 방식은 모델의 학습 데이터에 따라 다를 수 있다는 것입니다. 특히 CTC 손실 함수에서 blank를 활용하여 중복을 나타내도록 하는 것이 일반적입니다. 학습 데이터에 중복을 나타내는 레이블을 적절히 포함하고, 이에 맞게 모델 아키텍처 및 하이퍼파라미터를 조정하면 모델이 중복을 최소화하도록 학습될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>3000_blank_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000_Attn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_Attn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000_Attn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000_Attn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000_ctc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_ctc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000_ctc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000_ctc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000_ctc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104_confidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108_confidence_30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tes.py validation 함수  opt.Prediction  : CTC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tes.py validation 함수  gt  : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tes.py validation 함수  pred  : bMu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ฑ๑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>๑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ํำ๑ำ๑</t>
+    </r>
+  </si>
+  <si>
+    <t>tes.py validation 함수  preds  : tensor([[[-0.3181,  0.4068, -0.0827,  ..., -0.1481,  0.5651,  0.0910],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [ 0.0574,  0.4304, -0.1843,  ...,  0.2700,  0.3198,  0.5911],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [-0.0868,  0.5803, -0.0634,  ...,  0.3036,  0.3388,  0.5883],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ...,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [-0.8273,  0.2585,  0.3537,  ...,  0.1032, -0.1540,  0.2167],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [-0.6284,  0.1481,  0.5259,  ..., -0.1371, -0.1097,  0.0214],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [-0.6808,  0.3736,  0.5552,  ..., -0.0546, -0.1536,  0.1448]]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       device='cuda:0')</t>
+  </si>
+  <si>
+    <t>tes.py validation 함수  preds_prob  : tensor([[[0.0038, 0.0078, 0.0048,  ..., 0.0045, 0.0092, 0.0057],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [0.0053, 0.0077, 0.0042,  ..., 0.0066, 0.0069, 0.0091],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [0.0045, 0.0088, 0.0046,  ..., 0.0067, 0.0069, 0.0089],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [0.0021, 0.0062, 0.0068,  ..., 0.0053, 0.0041, 0.0059],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [0.0026, 0.0056, 0.0082,  ..., 0.0042, 0.0043, 0.0049],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [0.0025, 0.0071, 0.0085,  ..., 0.0046, 0.0042, 0.0056]]],</t>
+  </si>
+  <si>
+    <t>tes.py validation 함수  pred_max_prob  : tensor([0.0140, 0.0129, 0.0161, 0.0164, 0.0162, 0.0160, 0.0175, 0.0160, 0.0165,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        0.0203, 0.0204, 0.0206, 0.0226, 0.0246, 0.0228, 0.0229, 0.0216, 0.0257,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        0.0251, 0.0201, 0.0196, 0.0183, 0.0185, 0.0187, 0.0195, 0.0189, 0.0195,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        0.0217, 0.0199, 0.0229, 0.0237, 0.0257, 0.0262, 0.0182, 0.0171, 0.0192],</t>
+  </si>
+  <si>
+    <t>tes.py validation 함수  pred_max_prob.cumprod(dim=0)  : tensor([1.3979e-02, 1.8010e-04, 2.8978e-06, 4.7598e-08, 7.6942e-10, 1.2287e-11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2.1522e-13, 3.4342e-15, 5.6560e-17, 1.1459e-18, 2.3380e-20, 4.8175e-22,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.0884e-23, 2.6796e-25, 6.1022e-27, 1.4004e-28, 3.0292e-30, 7.7974e-32,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.9556e-33, 3.9313e-35, 7.7204e-37, 1.4102e-38, 2.6080e-40, 4.8737e-42,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        9.5288e-44, 1.4013e-45, 0.0000e+00, 0.0000e+00, 0.0000e+00, 0.0000e+00,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        0.0000e+00, 0.0000e+00, 0.0000e+00, 0.0000e+00, 0.0000e+00, 0.0000e+00],</t>
+  </si>
+  <si>
+    <t>tes.py validation 함수  pred_max_prob.cumprod(dim=0)[-1]  : 0.0</t>
+  </si>
+  <si>
+    <t>preds = model(image, text_for_pred)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preds_prob = F.softmax(preds, dim=2)         </t>
+  </si>
+  <si>
+    <t>preds_max_prob, _ = preds_prob.max(dim=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for gt, pred, pred_max_prob in zip(labels, preds_str, preds_max_prob):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                confidence_score = pred_max_prob.cumprod(dim=0)[-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            except:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                confidence_score = 0  # for empty pred case, when prune after "end of sentence" token ([s])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return valid_loss_avg.val(), accuracy, norm_ED, preds_str, confidence_score_list, labels, infer_time, length_of_data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +658,14 @@
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -826,6 +1157,627 @@
         <a:xfrm>
           <a:off x="7067550" y="37719000"/>
           <a:ext cx="10066667" cy="5923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10361905</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>65933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7770D5CE-E74A-F49C-04DE-3ACD6DFF23A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="44005500"/>
+          <a:ext cx="10361905" cy="5933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246249</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>27864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AEB4A8-6FB6-FEAF-D171-99A86CE779C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="50501550"/>
+          <a:ext cx="11209524" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10866667</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>94531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E581BF-1C02-0FA7-05B2-A8958FA35023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="56578500"/>
+          <a:ext cx="10866667" cy="5752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10152381</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>151674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4471A961-58C1-31A8-A57F-33880BE52A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="62655450"/>
+          <a:ext cx="10152381" cy="5809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10723809</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>27812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9F6799-769B-E485-F07B-D9622E1625B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="68941950"/>
+          <a:ext cx="10723809" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10409524</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>104029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ECCCE3-4B0D-EA6E-03C7-5E2C5E2FB376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="75438000"/>
+          <a:ext cx="10409524" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10542857</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>161224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387A2225-6730-D28A-E367-6760819223DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="81724500"/>
+          <a:ext cx="10542857" cy="5609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9190476</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>180036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FCC0C2-D8E1-0168-0EC0-9FF245B1C759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="87591900"/>
+          <a:ext cx="9190476" cy="7514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9009524</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>27576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CC5835-4572-C42D-4043-9A0E70557C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="95345250"/>
+          <a:ext cx="9009524" cy="7990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10200000</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>170407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC4930F-3CD8-7885-37AE-1E1A9EE58F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="103727250"/>
+          <a:ext cx="10200000" cy="8342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10285714</xdr:colOff>
+      <xdr:row>577</xdr:row>
+      <xdr:rowOff>46571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510A1AB7-8EC2-1006-BB30-59CBE44675AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="112528350"/>
+          <a:ext cx="10285714" cy="8428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8257143</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>132600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D9BDE4-8BF5-6903-6FDD-276EC57578CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="121119900"/>
+          <a:ext cx="8257143" cy="6000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>465676</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>208528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256709C4-9BB6-55B9-5CDD-ED2440DD9F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="8591550"/>
+          <a:ext cx="8390476" cy="8171428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>465676</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>113264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32C8356-F182-404E-B2C0-E4A71C3D32A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="17183100"/>
+          <a:ext cx="8390476" cy="8285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1270,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75:J85"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106:J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1607,6 +2559,141 @@
     <row r="85" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J85" s="13" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1875,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC86038-28A6-4022-83F9-39DB158E235D}">
-  <dimension ref="B1:C181"/>
+  <dimension ref="B1:C579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+    <sheetView topLeftCell="B469" workbookViewId="0">
+      <selection activeCell="D579" sqref="D579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1940,6 +3027,322 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="2">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C271" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C330" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C361" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C391" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C419" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C456" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C496" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C538" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C579" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E2975F-C0F4-4FE3-BB52-F96E2C5B81F8}">
+  <dimension ref="A2:A132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.5" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE72888-78A2-47A5-BCF6-346652E4C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89737ED-407A-41D9-830C-C00D6DABB433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="28620" windowHeight="14925" firstSheet="1" activeTab="8" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="traiin" sheetId="4" r:id="rId4"/>
     <sheet name="102_전후 학습 비교" sheetId="5" r:id="rId5"/>
     <sheet name="104_전후_confidence 비교" sheetId="6" r:id="rId6"/>
+    <sheet name="easycor_dtrb_비교" sheetId="8" r:id="rId7"/>
+    <sheet name="decode_decode_greedy_비교" sheetId="9" r:id="rId8"/>
+    <sheet name="로그" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="440">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,12 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>global imgH</t>
-  </si>
-  <si>
-    <t>result0 = get_text(self.character, imgH, int(max_width), self.recognizer, self.converter, image_list,\</t>
-  </si>
-  <si>
     <t xml:space="preserve">                              ignore_char, decoder, beamWidth, batch_size, contrast_ths, adjust_contrast, filter_ths,\</t>
   </si>
   <si>
@@ -150,10 +147,6 @@
   </si>
   <si>
     <t>utils.py -&gt; get_image_list()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recognition.py -&gt; get_text()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -577,53 +570,1409 @@
     <t xml:space="preserve">        0.0000e+00, 0.0000e+00, 0.0000e+00, 0.0000e+00, 0.0000e+00, 0.0000e+00],</t>
   </si>
   <si>
+    <t>preds = model(image, text_for_pred)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preds_prob = F.softmax(preds, dim=2)         </t>
+  </si>
+  <si>
+    <t>preds_max_prob, _ = preds_prob.max(dim=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for gt, pred, pred_max_prob in zip(labels, preds_str, preds_max_prob):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                confidence_score = pred_max_prob.cumprod(dim=0)[-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            except:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                confidence_score = 0  # for empty pred case, when prune after "end of sentence" token ([s])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return valid_loss_avg.val(), accuracy, norm_ED, preds_str, confidence_score_list, labels, infer_time, length_of_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    test_data = ListDataset(img_list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    test_loader = torch.utils.data.DataLoader(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        test_data, batch_size=batch_size, shuffle=False,</t>
+  </si>
+  <si>
+    <r>
+      <t>result0 = get_text(self.character, imgH,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int(max_width)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, self.recognizer, self.converter, image_list,\</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>recognition.py -&gt; get_text((character, imgH,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> imgW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, recognizer, converter, image_list,\)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global imgH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        num_workers=int(workers), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collate_fn=AlignCollate_normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pin_memory=True)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlignCollate_normal = AlignCollate(imgH=imgH, imgW=imgW, keep_ratio_with_pad=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result1 = recognizer_predict(recognizer, converter, test_loader,batch_max_length,\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 ignore_idx, char_group_idx, decoder, beamWidth, device = device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       ignore_idx, char_group_idx, decoder = 'greedy', beamWidth= 5, device = 'cpu'):</t>
+  </si>
+  <si>
+    <t>recognizer_predict(model, converter, test_loader, batch_max_length,\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition.py -&gt; recognizer_predict(model, converter, test_loader, batch_max_length,\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        for image_tensors in test_loader:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            batch_size = image_tensors.size(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            image = image_tensors.to(device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            length_for_pred = torch.IntTensor([batch_max_length] * batch_size).to(device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            text_for_pred = torch.LongTensor(batch_size, batch_max_length + 1).fill_(0).to(device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Select max probabilty (greedy decoding) then decode index to character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_size = torch.IntTensor([preds.size(1)] * batch_size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_prob = preds_prob.cpu().detach().numpy()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_prob[:,:,ignore_idx] = 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            pred_norm = preds_prob.sum(axis=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_prob = preds_prob/np.expand_dims(pred_norm, axis=-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_prob = torch.from_numpy(preds_prob).float().to(device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if decoder == 'greedy':</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                # Select max probabilty (greedy decoding) then decode index to character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                _, preds_index = preds_prob.max(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                preds_index = preds_index.view(-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                preds_str = converter.decode_greedy(preds_index.data.cpu().detach().numpy(), preds_size.data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            elif decoder == 'beamsearch':</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                k = preds_prob.cpu().detach().numpy()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                preds_str = converter.decode_beamsearch(k, beamWidth=beamWidth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            elif decoder == 'wordbeamsearch':</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                preds_str = converter.decode_wordbeamsearch(k, beamWidth=beamWidth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            values = preds_prob.max(axis=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            indices = preds_prob.argmax(axis=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_max_prob = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            for v,i in zip(values, indices):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                max_probs = v[i!=0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if len(max_probs)&gt;0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    preds_max_prob.append(max_probs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    preds_max_prob.append(np.array([0]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            for pred, pred_max_prob in zip(preds_str, preds_max_prob):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                confidence_score = custom_mean(pred_max_prob)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                result.append([pred, confidence_score])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> preds = model(image, text_for_pred)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_prob = F.softmax(preds, dim=2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image = image_tensors.to(device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # For max length prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        length_for_pred = torch.IntTensor([opt.batch_max_length] * batch_size).to(device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        text_for_pred = torch.LongTensor(batch_size, opt.batch_max_length + 1).fill_(0).to(device)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        text_for_loss, length_for_loss = converter.encode(labels, batch_max_length=opt.batch_max_length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if 'CTC' in opt.Prediction:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Calculate evaluation loss for CTC deocder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if opt.baiduCTC:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                cost = criterion(preds.permute(1, 0, 2), text_for_loss, preds_size, length_for_loss) / batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                cost = criterion(preds.log_softmax(2).permute(1, 0, 2), text_for_loss, preds_size, length_for_loss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                _, preds_index = preds.max(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        valid_loss_avg.add(cost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # calculate accuracy &amp; confidence score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        preds_prob = F.softmax(preds, dim=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        preds_max_prob, _ = preds_prob.max(dim=2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        confidence_score_list = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if 'Attn' in opt.Prediction:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                gt = gt[:gt.find('[s]')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                pred_EOS = pred.find('[s]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                pred = pred[:pred_EOS]  # prune after "end of sentence" token ([s])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                pred_max_prob = pred_max_prob[:pred_EOS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if pred == gt:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                n_correct += 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # ICDAR2019 Normalized Edit Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if len(gt) == 0 or len(pred) == 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                norm_ED += 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            elif len(gt) &gt; len(pred):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                norm_ED += 1 - edit_distance(pred, gt) / len(gt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                norm_ED += 1 - edit_distance(pred, gt) / len(pred)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # calculate confidence score (= multiply of pred_max_prob)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            confidence_score_list.append(confidence_score)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy = n_correct / float(length_of_data) * 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    norm_ED = norm_ED / float(length_of_data)  # ICDAR2019 Normalized Edit Distance</t>
+  </si>
+  <si>
+    <t>deep_text_recognition_benchmark -&gt; test.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _, preds_index = preds.max(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_str = converter.decode(preds_index.data, preds_size.data)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 로딩:</t>
+  </si>
+  <si>
+    <t>장치 이동:</t>
+  </si>
+  <si>
+    <t>현재 배치의 이미지 데이터를 GPU 또는 CPU로 이동시킵니다.</t>
+  </si>
+  <si>
+    <t>출력 길이 및 레이블 초기화:</t>
+  </si>
+  <si>
+    <t>length_for_pred = torch.IntTensor([batch_max_length] * batch_size).to(device)</t>
+  </si>
+  <si>
+    <t>예측할 텍스트의 최대 길이를 설정하고, 각 샘플의 예측된 텍스트에 대한 레이블을 초기화합니다.</t>
+  </si>
+  <si>
+    <t>모델 예측:</t>
+  </si>
+  <si>
+    <t>이미지를 모델에 전달하여 텍스트 예측을 수행합니다.</t>
+  </si>
+  <si>
+    <t>확률 계산 및 후처리:</t>
+  </si>
+  <si>
+    <t>preds_prob = preds_prob.cpu().detach().numpy()</t>
+  </si>
+  <si>
+    <t>모델의 출력에 softmax 함수를 적용하여 확률을 계산하고, 일부 인덱스를 무시합니다(ignore_idx).</t>
+  </si>
+  <si>
+    <t>정규화(normalization)를 수행하여 각 클래스에 대한 예측 확률을 얻습니다.</t>
+  </si>
+  <si>
+    <t>디코딩:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Greedy decoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Beam search decoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    k = preds_prob.cpu().detach().numpy()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    preds_str = converter.decode_beamsearch(k, beamWidth=beamWidth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Word beam search decoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    preds_str = converter.decode_wordbeamsearch(k, beamWidth=beamWidth)</t>
+  </si>
+  <si>
+    <t>최대 확률과 인덱스 계산:</t>
+  </si>
+  <si>
+    <t>각 샘플에 대해 최대 확률과 해당 확률을 갖는 인덱스를 계산합니다.</t>
+  </si>
+  <si>
+    <t>확률 후처리:</t>
+  </si>
+  <si>
+    <t>preds_max_prob = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        preds_max_prob.append(max_probs)</t>
+  </si>
+  <si>
+    <t>각 샘플에 대한 최대 확률을 추출하고, 0이 아닌 값만 고려하여 리스트에 추가합니다.</t>
+  </si>
+  <si>
+    <t>결과와 신뢰도 점수 저장:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    confidence_score = custom_mean(pred_max_prob)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    result.append([pred, confidence_score])</t>
+  </si>
+  <si>
+    <t>각 샘플에 대한 디코딩된 텍스트와 해당 텍스트의 신뢰도 점수를 리스트에 추가합니다.</t>
+  </si>
+  <si>
+    <t>결과 반환:</t>
+  </si>
+  <si>
+    <t>최종적으로 각 샘플에 대한 결과를 반환합니다.</t>
+  </si>
+  <si>
+    <t>이 코드는 모델의 예측 결과를 디코딩하고, 신뢰도 점수를 계산하여 최종 결과를 반환하는 것을 목적으로 합니다. 디코딩 방법 및 확률 관련 후처리는 디코더 종류에 따라 다르게 이루어집니다.</t>
+  </si>
+  <si>
+    <t>for image_tensors in test_loader:</t>
+  </si>
+  <si>
+    <t>test_loader에서 이미지 데이터를 배치 단위로 로드합니다.</t>
+  </si>
+  <si>
+    <t>batch_size = image_tensors.size(0)</t>
+  </si>
+  <si>
+    <t>text_for_pred = torch.LongTensor(batch_size, batch_max_length + 1).fill_(0).to(device)</t>
+  </si>
+  <si>
+    <t>preds_size = torch.IntTensor([preds.size(1)] * batch_size)</t>
+  </si>
+  <si>
+    <t>preds_prob = F.softmax(preds, dim=2)</t>
+  </si>
+  <si>
+    <t>preds_prob[:,:,ignore_idx] = 0.</t>
+  </si>
+  <si>
+    <t>pred_norm = preds_prob.sum(axis=2)</t>
+  </si>
+  <si>
+    <t>preds_prob = preds_prob / np.expand_dims(pred_norm, axis=-1)</t>
+  </si>
+  <si>
+    <t>preds_prob = torch.from_numpy(preds_prob).float().to(device)</t>
+  </si>
+  <si>
+    <t>if decoder == 'greedy':</t>
+  </si>
+  <si>
+    <t>elif decoder == 'beamsearch':</t>
+  </si>
+  <si>
+    <t>elif decoder == 'wordbeamsearch':</t>
+  </si>
+  <si>
+    <t>선택된 디코딩 방법(greedy, beamsearch, 또는 wordbeamsearch)에 따라 텍스트를 디코딩합니다.</t>
+  </si>
+  <si>
+    <t>values = preds_prob.max(axis=2)</t>
+  </si>
+  <si>
+    <t>indices = preds_prob.argmax(axis=2)</t>
+  </si>
+  <si>
+    <t>for v, i in zip(values, indices):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    max_probs = v[i != 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if len(max_probs) &gt; 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        preds_max_prob.append(np.array([0]))</t>
+  </si>
+  <si>
+    <t>for pred, pred_max_prob in zip(preds_str, preds_max_prob):</t>
+  </si>
+  <si>
+    <t>return result</t>
+  </si>
+  <si>
+    <t>easyocr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep_text_recognition_benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 및 레이블 준비:</t>
+  </si>
+  <si>
+    <t>length_for_pred = torch.IntTensor([opt.batch_max_length] * batch_size).to(device)</t>
+  </si>
+  <si>
+    <t>현재 배치의 이미지를 GPU 또는 CPU로 이동하고, 텍스트 예측을 위한 레이블과 길이를 초기화합니다.</t>
+  </si>
+  <si>
+    <t>손실 및 레이블 계산:</t>
+  </si>
+  <si>
+    <t>text_for_loss, length_for_loss = converter.encode(labels, batch_max_length=opt.batch_max_length)</t>
+  </si>
+  <si>
+    <t>실제 레이블을 인코딩하여 학습 중 사용될 손실 및 레이블을 계산합니다.</t>
+  </si>
+  <si>
+    <t>CTC 디코딩 및 손실 계산:</t>
+  </si>
+  <si>
+    <t>CTC 디코딩을 사용하여 모델의 예측에 대한 손실을 계산합니다.</t>
+  </si>
+  <si>
+    <t>정확도 및 정규화된 편집 거리 계산:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pred = pred[:pred_EOS]  # [s] 토큰 이후 내용 제거</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pred_max_prob = pred_max_prob[:pred_EOS]</t>
+  </si>
+  <si>
+    <t>정확도를 계산하고, ICDAR2019 정규화된 편집 거리를 계산합니다.</t>
+  </si>
+  <si>
+    <t>신뢰도 점수 및 손실 추가:</t>
+  </si>
+  <si>
+    <t>confidence_score_list.append(confidence_score)</t>
+  </si>
+  <si>
+    <t>valid_loss_avg.add(cost)</t>
+  </si>
+  <si>
+    <t>각 샘플에 대한 신뢰도 점수를 계산하고 리스트에 추가합니다.</t>
+  </si>
+  <si>
+    <t>현재 배치에 대한 손실을 평균 손실에 추가합니다.</t>
+  </si>
+  <si>
+    <t>정확도, 정규화된 편집 거리 및 결과 반환:</t>
+  </si>
+  <si>
+    <t>최종적으로 평균 손실, 정확도, 정규화된 편집 거리, 디코딩된 결과 및 기타 관련 정보를 반환합니다.</t>
+  </si>
+  <si>
+    <t>이 코드는 주로 테스트 데이터에 대한 모델의 성능을 평가하고, 손실 및 평가 지표를 계산하는 데 사용됩니다.</t>
+  </si>
+  <si>
+    <t>text_for_pred = torch.LongTensor(batch_size, opt.batch_max_length + 1).fill_(0).to(device)</t>
+  </si>
+  <si>
+    <t>if 'CTC' in opt.Prediction:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    preds_size = torch.IntTensor([preds.size(1)] * batch_size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if opt.baiduCTC:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cost = criterion(preds.permute(1, 0, 2), text_for_loss, preds_size, length_for_loss) / batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cost = criterion(preds.log_softmax(2).permute(1, 0, 2), text_for_loss, preds_size, length_for_loss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        _, preds_index = preds.max(2)</t>
+  </si>
+  <si>
+    <t>else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    pass</t>
+  </si>
+  <si>
+    <t>디코딩 결과를 얻어내어 preds_str에 저장합니다.</t>
+  </si>
+  <si>
+    <t>for gt, pred, pred_max_prob in zip(labels, preds_str, preds_max_prob):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if 'Attn' in opt.Prediction:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        gt = gt[:gt.find('[s]')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pred_EOS = pred.find('[s]')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if pred == gt:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        n_correct += 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if len(gt) == 0 or len(pred) == 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        norm_ED += 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif len(gt) &gt; len(pred):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        norm_ED += 1 - edit_distance(pred, gt) / len(gt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        norm_ED += 1 - edit_distance(pred, gt) / len(pred)</t>
+  </si>
+  <si>
+    <t>try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    confidence_score = pred_max_prob.cumprod(dim=0)[-1]</t>
+  </si>
+  <si>
+    <t>except:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    confidence_score = 0</t>
+  </si>
+  <si>
+    <t>accuracy = n_correct / float(length_of_data) * 100</t>
+  </si>
+  <si>
+    <t>norm_ED = norm_ED / float(length_of_data)</t>
+  </si>
+  <si>
+    <t>return valid_loss_avg.val(), accuracy, norm_ED, preds_str, confidence_score_list, labels, infer_time, length_of_data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_str = converter.decode(preds_index.data, preds_size.data)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_str = converter.decode_greedy(preds_index.data.cpu().detach().numpy(), preds_size.data)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preds = model(image, text_for_pred)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds = model(image, text_for_pred)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_, preds_index = preds.max(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> preds_index = preds_index.view(-1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_, preds_index = preds_prob.max(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_index = preds_index.view(-1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode_greedy:</t>
+  </si>
+  <si>
+    <t>preds_str = converter.decode_greedy(preds_index.data.cpu().detach().numpy(), preds_size.data)</t>
+  </si>
+  <si>
+    <t>decode_greedy 함수는 간단한 "탐욕적(greedy)" 디코딩 방법을 나타냅니다.</t>
+  </si>
+  <si>
+    <t>각 시간 단계에서 가장 높은 확률을 가진 인덱스를 선택하여 최종 디코딩된 문자열을 생성합니다.</t>
+  </si>
+  <si>
+    <t>CPU에서 데이터를 디탭하여 NumPy 배열로 변환한 후 decode_greedy 함수에 전달합니다.</t>
+  </si>
+  <si>
+    <t>decode:</t>
+  </si>
+  <si>
+    <t>decode 함수는 CTC 디코딩을 수행하는 일반적인 방법을 나타냅니다.</t>
+  </si>
+  <si>
+    <t>여기서는 preds_index.data와 preds_size.data를 decode 함수에 직접 전달합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_greedy와 decode는 두 가지 다른 디코딩 방법을 나타냅니다. </t>
+  </si>
+  <si>
+    <t>주어진 코드에서는 CTC (Connectionist Temporal Classification) 디코더에 대한 결과를 디코딩하는 데 사용됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디코딩은 CTC 알고리즘에 따라, 각 시간 단계에서 가능한 모든 경로를 고려하여 </t>
+  </si>
+  <si>
+    <t>가장 가능성 있는 경로를 찾아내어 최종 디코딩 결과를 생성합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">따라서 주된 차이는 디코딩 방법에 있습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_greedy는 각 시간 단계에서 최대 확률의 인덱스를 선택하는 단순한 방법이고, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode는 CTC 디코딩 알고리즘에 따라 최적의 디코딩 경로를 찾는 보다 정교한 방법입니다. </t>
+  </si>
+  <si>
+    <t>두 방법은 어휘나 텍스트의 특성에 따라 성능이 다를 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eaycor_dtrb 차이점 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.setdefaultencoding('utf-8')</t>
+  </si>
+  <si>
+    <t>preds_str = converter.decode(preds_index.data, preds_size.data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">converter.decode와 converter.decode_greedy는 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTC (Connectionist Temporal Classification) 디코딩의 두 가지 다른 방법을 나타냅니다. </t>
+  </si>
+  <si>
+    <t>각각의 차이점과 동작 원리에 대해 자세히 설명하겠습니다.</t>
+  </si>
+  <si>
+    <t>1. converter.decode:</t>
+  </si>
+  <si>
+    <t>동작 원리:</t>
+  </si>
+  <si>
+    <t>converter.decode는 CTC 디코딩을 수행하는 일반적인 방법입니다.</t>
+  </si>
+  <si>
+    <t>CTC 디코딩은 모든 가능한 경로를 고려하여 입력 시퀀스에 대한 가장 가능성 있는 출력을 찾아냅니다.</t>
+  </si>
+  <si>
+    <t>디코딩 알고리즘은 각 시간 단계에서 가능한 모든 출력 문자를 고려하며,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTC 레이어의 결과를 기반으로 경로를 확률적으로 평가합니다.</t>
+  </si>
+  <si>
+    <t>특징:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTC 디코딩 알고리즘이 최적의 결과를 찾아내기 위해 </t>
+  </si>
+  <si>
+    <t>디코딩 결과는 입력 시퀀스에 대한 확률적인 평가를 기반으로 합니다.</t>
+  </si>
+  <si>
+    <t>2. converter.decode_greedy:</t>
+  </si>
+  <si>
+    <t>converter.decode_greedy는 탐욕적인(Greedy) 방식으로 디코딩을 수행합니다.</t>
+  </si>
+  <si>
+    <t>각 시간 단계에서 가장 높은 확률을 가진 문자를 선택하여 디코딩 결과를 생성합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 방법은 각 시간 단계에서 최적의 선택을 하는 것이 아니라 </t>
+  </si>
+  <si>
+    <t>탐욕적으로 현재 상태에서의 최적을 선택하는 방식입니다.</t>
+  </si>
+  <si>
+    <t>가장 확률이 높은 문자만을 고려하므로, 최적의 결과를 보장하지는 않습니다.</t>
+  </si>
+  <si>
+    <t>같은 문자가 여러 번 나오거나 이상한 결과가 나올 수 있습니다.</t>
+  </si>
+  <si>
+    <t>차이점:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode: 최적의 결과를 찾기 위해 모든 가능한 경로를 고려하는 방식으로, </t>
+  </si>
+  <si>
+    <t>정확한 디코딩을 수행합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_greedy: 현재 시간 단계에서 가장 높은 확률을 선택하는 탐욕적인 방식으로, </t>
+  </si>
+  <si>
+    <t>정확한 결과를 보장하지 않을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>이유:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_greedy에서는 현재 시간 단계에서만 고려하기 때문에, </t>
+  </si>
+  <si>
+    <t>이전 시간 단계의 정보를 반영하지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">같은 문자가 여러 번 나오는 경우에는 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 시간 단계에서만 보이는 확률이 높은 문자가 선택되므로 </t>
+  </si>
+  <si>
+    <t>이로 인해 이상한 결과가 나올 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">따라서, 디코딩 방법을 선택할 때는 해당 모델 및 데이터에 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">가장 적합한 방법을 고려해야 합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">일반적으로 decode가 더 정교하게 동작하지만, </t>
+  </si>
+  <si>
+    <t>경우에 따라서는 decode_greedy가 빠르게 결과를 얻는 데 효과적일 수 있습니다.</t>
+  </si>
+  <si>
+    <t>최종적으로 가장 가능성 있는 경로를 선택하여 디코딩 결과를 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 가능한 경로를 고려하므로 정확한 결과를 얻을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에러 원인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tes.py validation 함수  pred_max_prob.cumprod(dim=0)[-1]  : 0.0</t>
-  </si>
-  <si>
-    <t>preds = model(image, text_for_pred)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preds_prob = F.softmax(preds, dim=2)         </t>
-  </si>
-  <si>
-    <t>preds_max_prob, _ = preds_prob.max(dim=2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        for gt, pred, pred_max_prob in zip(labels, preds_str, preds_max_prob):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            try:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                confidence_score = pred_max_prob.cumprod(dim=0)[-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            except:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                confidence_score = 0  # for empty pred case, when prune after "end of sentence" token ([s])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test.py validation 함수  pred_max_prob.cumprod(dim=0)[-1]  : 0.0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode_greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>texts = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        index = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for l in length:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Returns a boolean array where true is when the value is not repeated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            a = np.insert(~((t[1:]==t[:-1])),0,True)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Returns a boolean array where true is when the value is not in the ignore_idx list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            b = ~np.isin(t,np.array(self.ignore_idx))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Combine the two boolean array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            c = a &amp; b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Gets the corresponding character according to the saved indexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts.append(text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            index += l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return texts</t>
+  </si>
+  <si>
+    <t>decode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            for i in range(l):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if t[i] != 0 and (not (i &gt; 0 and t[i - 1] == t[i])):  # removing repeated characters and blank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            text = ''.join(char_list)</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return valid_loss_avg.val(), accuracy, norm_ED, preds_str, confidence_score_list, labels, infer_time, length_of_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>char_list.append(self.character[t[i]])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text = ''.join(np.array(self.character)[t[c.nonzero()]])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        for index, l in enumerate(length):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                char_list = []</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            char_list = []</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t = text_index[index, :] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t = text_index[index:index + l]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># decode</t>
+  </si>
+  <si>
+    <r>
+      <t>ocr_test.py results : [([[6, 7], [2203, 7], [2203, 114], [6, 114]], '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>้ย้ย้ว้</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ง้อรา้รลร้วร้ว้่ว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>้งต้ต้ต้า้ร้ร้ร้ร้รลรล้ล้ร้ว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>่ง้ลอลยลร้รู้ย้ล้ยรยลชยงยรยรย</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 0.0)]</t>
+    </r>
+  </si>
+  <si>
+    <t># decode_greedy</t>
+  </si>
+  <si>
+    <t>pythonlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>สวัสดี</t>
+  </si>
+  <si>
+    <t>ตปติก</t>
+  </si>
+  <si>
+    <r>
+      <t>!!!!!!!!!!! test.py preds : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>้ตปติก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>!!!!!!!!!!! test.py confidence_score : [tensor(1.2567e-13, device='cuda:0')]</t>
+  </si>
+  <si>
+    <r>
+      <t>!!!!!!!!!!! test.py labels : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,8 +2016,24 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +2061,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +2106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +2148,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,15 +2298,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10447619</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>151359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -947,15 +2342,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10276190</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>179931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -991,15 +2386,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10304762</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>189455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1035,15 +2430,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10761905</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>85059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1079,15 +2474,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10704762</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>142202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1123,15 +2518,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10066667</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>56409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1167,15 +2562,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10361905</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>65933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1211,15 +2606,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>246249</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>27864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1255,15 +2650,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10866667</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>94531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1299,15 +2694,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10152381</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>151674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1343,15 +2738,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10723809</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>27812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1387,15 +2782,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10409524</xdr:colOff>
-      <xdr:row>388</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>104029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1431,15 +2826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10542857</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>161224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1475,15 +2870,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9190476</xdr:colOff>
-      <xdr:row>453</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>180036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1519,15 +2914,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9009524</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>27576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1563,15 +2958,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10200000</xdr:colOff>
-      <xdr:row>534</xdr:row>
+      <xdr:row>538</xdr:row>
       <xdr:rowOff>170407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1607,15 +3002,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>537</xdr:row>
+      <xdr:row>541</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>10285714</xdr:colOff>
-      <xdr:row>577</xdr:row>
+      <xdr:row>581</xdr:row>
       <xdr:rowOff>46571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1651,15 +3046,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>582</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>8257143</xdr:colOff>
-      <xdr:row>606</xdr:row>
+      <xdr:row>610</xdr:row>
       <xdr:rowOff>132600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2224,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J106" sqref="J106:J128"/>
     </sheetView>
   </sheetViews>
@@ -2516,7 +3911,7 @@
     </row>
     <row r="75" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J75" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="10:10" x14ac:dyDescent="0.3">
@@ -2524,7 +3919,7 @@
     </row>
     <row r="77" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J77" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2532,12 +3927,12 @@
     </row>
     <row r="79" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J79" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J80" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2545,12 +3940,12 @@
     </row>
     <row r="82" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J82" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J83" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2558,142 +3953,142 @@
     </row>
     <row r="85" spans="10:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J85" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J91" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J92" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J94" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J96" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J98" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J100" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J102" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J104" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J106" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J108" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J110" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J111" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J112" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J114" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J115" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J116" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J117" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J120" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J123" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J124" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J125" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J127" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J128" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2705,15 +4100,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B88D8A2-60F7-4F2C-9569-CDE8242137D4}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.125" customWidth="1"/>
+    <col min="1" max="1" width="80.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="38.375" customWidth="1"/>
     <col min="4" max="4" width="47.875" customWidth="1"/>
@@ -2722,168 +4117,738 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C96" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="7">
+        <v>1110</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1410</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="7">
-        <v>1110</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1410</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
-        <v>35</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="D98" s="7">
         <v>100</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2910,23 +4875,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>4</v>
@@ -2962,129 +4927,145 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC86038-28A6-4022-83F9-39DB158E235D}">
-  <dimension ref="B1:C579"/>
+  <dimension ref="A1:B583"/>
   <sheetViews>
-    <sheetView topLeftCell="B469" workbookViewId="0">
-      <selection activeCell="D579" sqref="D579"/>
+    <sheetView topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="41.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="143.875" customWidth="1"/>
+    <col min="1" max="1" width="46" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="143.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>104</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B6" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>108</v>
       </c>
-      <c r="C44" s="2">
+      <c r="B48" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>109</v>
       </c>
-      <c r="C85" s="2">
+      <c r="B89" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B127" s="2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>115</v>
       </c>
-      <c r="C127" s="2">
+      <c r="B131" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
         <v>115</v>
       </c>
-      <c r="C154" s="2">
+      <c r="B158" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="2">
         <v>16000</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C242" s="2" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C271" s="2" t="s">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C300" s="2" t="s">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C330" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C361" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C391" s="2" t="s">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B500" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C419" s="2" t="s">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B542" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B583" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C456" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C496" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C538" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C579" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E2975F-C0F4-4FE3-BB52-F96E2C5B81F8}">
   <dimension ref="A2:A132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A113" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -3110,237 +5091,237 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3348,4 +5329,1014 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB88847-1475-47F1-A75A-3425AE1C71A8}">
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="91.375" customWidth="1"/>
+    <col min="2" max="2" width="89.125" customWidth="1"/>
+    <col min="3" max="3" width="104.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C38" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>249</v>
+      </c>
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>335</v>
+      </c>
+      <c r="C69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5F9E80-3231-4B10-82AC-97B82BF26B59}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.625" customWidth="1"/>
+    <col min="2" max="2" width="69.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>423</v>
+      </c>
+      <c r="B24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C270C7-A97D-4998-A3DC-3BCE9CF263E7}">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="60.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89737ED-407A-41D9-830C-C00D6DABB433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F55BA-B77A-4924-A2A0-1E6F37DA7BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="28620" windowHeight="14925" firstSheet="1" activeTab="8" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="easycor_dtrb_비교" sheetId="8" r:id="rId7"/>
     <sheet name="decode_decode_greedy_비교" sheetId="9" r:id="rId8"/>
     <sheet name="로그" sheetId="10" r:id="rId9"/>
+    <sheet name="폰트" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="443">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1966,6 +1967,18 @@
       </rPr>
       <t>']</t>
     </r>
+  </si>
+  <si>
+    <t>엑셀 폰트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모장 폰트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2106,7 +2119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2166,6 +2179,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3184,6 +3200,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4580952</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C92CA0-79D4-7F11-6C04-8BB63A46B429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="4580952" cy="2514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4647619</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB14E112-8D30-31F0-7D7A-F6F3DE298037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="419100"/>
+          <a:ext cx="4647619" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55439</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>208528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD1FF3F-CC84-3EFB-33CD-2C83D02BB00D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="419100"/>
+          <a:ext cx="13685714" cy="8171428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -3615,6 +3768,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ADDD08-D5E1-4324-8851-DA01C47ED04E}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="66.875" customWidth="1"/>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+    <col min="3" max="3" width="79.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
   <dimension ref="A1:J128"/>
@@ -6295,7 +6481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C270C7-A97D-4998-A3DC-3BCE9CF263E7}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F55BA-B77A-4924-A2A0-1E6F37DA7BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252FBE3-A345-4A12-B6F1-615C52D2D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="6210" yWindow="1620" windowWidth="20805" windowHeight="13485" firstSheet="2" activeTab="9" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -3334,6 +3334,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4904125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A86BFB-DA01-D99C-E360-EAE565FF74B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9639300"/>
+          <a:ext cx="10000000" cy="2685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4371429</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>37205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E550C4FA-F054-BA5A-E2BF-014B43D51D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12992100"/>
+          <a:ext cx="4371429" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4638095</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>94164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B94F382-6347-B59E-72AC-FDB48B2533BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="12992100"/>
+          <a:ext cx="4638095" cy="8685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3772,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ADDD08-D5E1-4324-8851-DA01C47ED04E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252FBE3-A345-4A12-B6F1-615C52D2D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F69A22-D028-44D1-B30D-368504829E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1620" windowWidth="20805" windowHeight="13485" firstSheet="2" activeTab="9" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="decode_decode_greedy_비교" sheetId="9" r:id="rId8"/>
     <sheet name="로그" sheetId="10" r:id="rId9"/>
     <sheet name="폰트" sheetId="11" r:id="rId10"/>
+    <sheet name="줄바꿈" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3469,6 +3470,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>531222</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>199398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405570CD-2315-A481-FF0F-F05337F2743C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17419047" cy="5019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -3904,7 +3954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ADDD08-D5E1-4324-8851-DA01C47ED04E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -3927,6 +3977,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF4EA3-E752-42E7-9748-22945EB631F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68.625" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9C30B-1D52-473B-BAE6-D55537EB4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13300F68-3BF9-4AB4-81E7-79AAC1B46DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="1680" windowWidth="20955" windowHeight="13485" tabRatio="831" firstSheet="3" activeTab="8" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="1080" yWindow="735" windowWidth="27315" windowHeight="13995" tabRatio="831" firstSheet="8" activeTab="17" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,13 @@
     <sheet name="로그" sheetId="10" r:id="rId9"/>
     <sheet name="폰트" sheetId="11" r:id="rId10"/>
     <sheet name="줄바꿈" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId13"/>
+    <sheet name="easyocr_dtrb_yaml_비교" sheetId="13" r:id="rId14"/>
+    <sheet name="recognition.py_test.py 비교" sheetId="16" r:id="rId15"/>
+    <sheet name="LMDB 로 테스트시" sheetId="17" r:id="rId16"/>
+    <sheet name="main.py 에서 test.py 임포트시" sheetId="18" r:id="rId17"/>
+    <sheet name="opt 될때_안 될때 비교" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="641">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,9 +621,6 @@
     <t xml:space="preserve">    test_data = ListDataset(img_list)</t>
   </si>
   <si>
-    <t xml:space="preserve">    test_loader = torch.utils.data.DataLoader(</t>
-  </si>
-  <si>
     <t xml:space="preserve">        test_data, batch_size=batch_size, shuffle=False,</t>
   </si>
   <si>
@@ -712,9 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result1 = recognizer_predict(recognizer, converter, test_loader,batch_max_length,\</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                 ignore_idx, char_group_idx, decoder, beamWidth, device = device)</t>
   </si>
   <si>
@@ -1667,12 +1668,6 @@
     <t xml:space="preserve">        for l in length:</t>
   </si>
   <si>
-    <t xml:space="preserve">            # Returns a boolean array where true is when the value is not repeated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            a = np.insert(~((t[1:]==t[:-1])),0,True)</t>
-  </si>
-  <si>
     <t xml:space="preserve">            # Returns a boolean array where true is when the value is not in the ignore_idx list</t>
   </si>
   <si>
@@ -5490,10 +5485,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">0117 가중치 파일로 검증시 ( 검은색 배경 ) 282 * 114 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0117 가중치 파일로 검증시 ( 검은색 배경  ) 16800 * 7500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8892,6 +8883,2703 @@
   </si>
   <si>
     <t>0118_잘 나올때 로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Returns a boolean array where true is when the value is not repeated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            a = np.insert(~((t[1:]==t[:-1])),0,True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtrb -&gt; train.py -&gt; opt.charcter 와 yaml 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtrb 와 pythonlib yaml 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>converter = CTCLabelConverter(opt.character)</t>
+  </si>
+  <si>
+    <t>train.py</t>
+  </si>
+  <si>
+    <t>opt.num_class = len(converter.character)</t>
+  </si>
+  <si>
+    <t>utils.py</t>
+  </si>
+  <si>
+    <t>class CTCLabelConverter(object):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """ Convert between text-label and text-index """</t>
+  </si>
+  <si>
+    <t>dict_character = list(character)</t>
+  </si>
+  <si>
+    <t>self.dict = {}</t>
+  </si>
+  <si>
+    <t>for i, char in enumerate(dict_character):</t>
+  </si>
+  <si>
+    <t>self.dict[char] = i + 1</t>
+  </si>
+  <si>
+    <t>self.character = ['[CTCblank]'] + dict_character  # dummy '[CTCblank]' token for CTCLoss (index 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, character):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        dict_character = list(character)
+	self.dict = {}
+	for i, char in enumerate(dict_character):
+	self.dict[char] = i + 1
+	self.character = ['[CTCblank]'] + dict_character  # dummy '[CTCblank]' token for CTCLoss (index 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!!!D:\pythonlib\easyocr for bbox in horizontal_list result : [([[3, 0], [271, 0], [271, 114], [3, 114]], '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เชาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 0.002476629585122314)]</t>
+    </r>
+  </si>
+  <si>
+    <t>pythonlib 와 dtrb 에서 학습할때 character 같게 한 후 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0117 가중치 파일로 검증시 ( 검은색 배경 0118 ) 282 * 114 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  labels : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>############### ocr_text: ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เชาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>############### labels : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythonlib 의 recog_config.yaml 과 dtrb 의 custom.yaml 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>############### ocr_text: ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ลนา้า้้า้าอ้้้้า้า้า้้า้ง้อ้า้ง้ย้างางา้า้า้าย้ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>imgH = 1410 일때 ( dtrb 에서  282 * 114 테스트시는 잘 나왔음 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282 * 114 이미지 imgH = 1410 로 확대해서 테스트 하면 위에처럼 이상하게 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>character_list: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>กขคฆงจฉชซฌญฎฏฐฑฒณดตถทธนบปผฝพฟภมยรลวศษสหฬอฮฤเแโใไะาุูิีืึั่้๊๋็์ำํฺฯๆ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0123456789</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>๑๒๓๔๕๖๗๘๙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>°✓¢£¤¥!\"#$%&amp;'()*+,-./:;&lt;=&gt;?@[\\]^_`{|}~ abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ"</t>
+    </r>
+  </si>
+  <si>
+    <t>순서 바꿨을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>¢£¤¥!\"#$%&amp;'()*+,-./:;&lt;=&gt;?@[\\]^_`{|}~ abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ</t>
+  </si>
+  <si>
+    <t>처음부분 ( Z까지 )을 마지막으로 보냈을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py preds : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สิ้นสุดการทำความสะอาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การตรวจจับระดับความนุ่ม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เครื่องจ่ายน้ำยา</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การปั่นหมาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ผ้าสกปรก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 'Wi-Fi', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ขั้นต่ำ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ตรวจดูที่ก๊อกน้ำและท่อ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เย็น</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>แห้งพร้อมสวมใส่</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ซักด่วน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ข้อผิดพลาดของท่อส่งน้ำ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ปิด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การขจัดกลิ่นอับ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เปิดและปิดประตูให้สนิท</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ลดการหดตัว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ของใยผ้า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ข้อผิดพลาดการเยือกแข็ง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สิ้นสุดการอบแห้ง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สิ้นสุดการอบแห้ง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '30°C', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ปิด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สูงสุด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เสียง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การเปิด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ป้องกันเด็ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ล้าง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ข้อผิดพลาดในการล็อคประตู</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ข้อผิดพลาดในการเปิดประตู</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เครื่องนอน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การซัก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ปั่นหมาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>แห้งพร้อมสวมใส่</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เปิด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ปั่นหมาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', '9 ~120 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>มล</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. (3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>มล</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.)', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ปิด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>อุณหภูมิ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ผ้าที่ไม่ต้องรีด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '95°C', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ไม่ปั่นแห้ง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>กำจัดฝุ่นบนเครื่องนอน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '95°C', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เชื่อมต่อแล้ว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ขั้นต่ำ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>กด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เพื่อทำความสะอาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>กด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เพื่อทำความสะอาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เสื้อขนเป็ด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การอบผ้า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 'ThinQ', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สูง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การตั้งค่า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ขั้นต่ำ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การปิด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สั่งงานระยะไกล</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เปิดและปิดประตูให้สนิท</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>น้ำยาซักผ้าที่</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ปกติ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ปั่นหมาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>การซัก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>มากกว่า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ผ้าที่ไม่ต้องรีด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '40°C', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>อบแห้งโดยไม่มีการซัก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    test_loader = torch.utils.data.DataLoader(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result1 = recognizer_predict(recognizer, converter, test_loader,batch_max_length,\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>############### ocr_text: ['g$m¢']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str  : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 labels : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>pythonlib -&gt; 학습한 가중치 ( 17일꺼 ) 검은색 배경 이미지 ( 18일꺼 ) 테스트시 잘 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognizer_predict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ######## filter ignore_char, rebalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_prob = F.softmax(preds, dim=2)</t>
+  </si>
+  <si>
+    <t>reconition.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            preds_str = converter.decode(preds_index.data, preds_size.data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0, 139,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        139,  90], device='cuda:0')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0, 139,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         139,  90]], device='cuda:0')</t>
+  </si>
+  <si>
+    <t>로그 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\pythonlib\easyocr recognizer_predict preds_str greedy test.py 처럼 변경 후 : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เช</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>าา</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D:\pythonlib\easyocr recognizer_predict preds_str greedy : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เช</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>า</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_, preds_index = preds.max(2)</t>
+  </si>
+  <si>
+    <t>test.py validation 함수  preds = model(image, text_for_pred) preds.shape: torch.Size([1, 26, 179])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0,   0,   0,   0,   0,   0,   0,   0, 107, 107, 107, 143]],</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test.py validation 함수  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_index  : tensor([[127, 124, 146, 146, 127, 127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D:\pythonlib\easyocr recognizer_predict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tensor([133,  97,   0,   0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\pythonlib\easyocr recognizer_predict preds_index greedy test.py 처럼 변경 후 : tensor([[133,  97,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>############### ocr_text: ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เชาาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lmdb 로 불러와서 테스트시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>############### ocr_text: ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เชาาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str  : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ำาาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0, 139, 139,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          90]], device='cuda:0')</t>
+  </si>
+  <si>
+    <r>
+      <t>D:\pythonlib\easyocr recognition.py validation 함수  preds_index  : tensor([[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>133, 159, 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lmdb 로 불러와서 테스트시 ( test.py 에서 쓰는 함수랑 같게 테스트시 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.py ( 잘 나올때 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str  : [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  preds_index  : tensor([[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127, 124, 146, 146, 127, 127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\pythonlib\easyocr recognition.py validation 함수  preds_index  : tensor([[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>133, 159, 153</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition.py ( validation 함수 가져와서 테스트시 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                _, preds_index = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds_prob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.max(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            _, preds_index = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.max(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition.py ( validation 함수 가져와서 테스트시 -&gt; decode 함수로 테스트시 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str  : [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>เ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>ำาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str 1 validation 함수 : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ำาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>test.py validation 함수  인코드전 text_for_pred.shape : torch.Size([1, 301])</t>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  인코드전 labels : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>test.py validation 함수  인코드전 opt.batch_max_length num_class 수로 변경 : 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test.py validation 함수  인코드후 text_for_loss : tensor([[127, 124, 146, 127, 107, 143,  </t>
+  </si>
+  <si>
+    <t>test.py validation 함수  인코드후 text_for_loss : tensor([[127, 124, 146, 127, 107, 143,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str 2 : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ำาก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>main.py 에서 test.py 임포트시</t>
+  </si>
+  <si>
+    <t>opt = argparse.Namespace(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        workers=4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        batch_size=192,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        batch_max_length=25,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        imgH=32,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        imgW=100,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        rgb=False,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        character='character',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sensitive=False,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        PAD=False,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        data_filtering_off=False,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        baiduCTC=False,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Transformation='character',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FeatureExtraction='character',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SequenceModeling='character',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Prediction='CTC',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        num_fiducial=20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # Prediction = 'character',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # num_fiducial =  20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        input_channel=1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        output_channel=512,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hidden_size=256,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        benchmark_all_eval=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        exp_name='None-VGG-BiLSTM-CTC-Seed1111'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sensitive=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        PAD=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # batch_max_length=300,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # character=recog_config['character_list'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        character=config['character_list'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        batch_size=1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        imgH=114,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        imgW=282,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        num_class=len(converter.character),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # ... 나머지 필요한 인수들 설정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안 될때 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>될 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt.saved_model = fr"D:\pythonlib\user_network\None_VGG_BiLSTM_CTC_th2.pth"</t>
+  </si>
+  <si>
+    <t>opt.Transformation = "None"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.FeatureExtraction = "VGG"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.SequenceModeling = "BiLSTM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.Prediction = "CTC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """ vocab / character number configuration """</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if opt.sensitive:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        opt.character = string.printable[:-6]  # same with ASTER setting (use 94 char).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cudnn.benchmark = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cudnn.deterministic = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.num_gpu = torch.cuda.device_count()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.Transformation = "None"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.eval_data = fr"C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\CRAFT-pytorch-master\test_images"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.saved_model = fr"C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\CRAFT-pytorch-master\model\model.pth"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 수정된 파일 경로 예시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.saved_model = "C:\\Users\\TAMSystech\\yjh\\ipynb\\deep-text-recognition-benchmark\\CRAFT-pytorch-master\\model\\model.pth"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.eval_data = fr"D:\pythonlib\misc\data\img"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.eval_data = fr"D:\pythonlib\misc\data\img\th\train"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.saved_model = fr"D:\pythonlib\user_network\None_VGG_BiLSTM_CTC_th2.pth"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 모델 로드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    loaded_model = torch.load(opt.saved_model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f'파일 저장전 iteration: {loaded_model}')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 배치 경사 하강법(Batch Gradient Descent) 적용시 train() 함수 반복시 root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.select_data = "th"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.batch_ratio = "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.batch_ratio = "0.5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.batch_ratio = "0.0005"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.total_data_usage_ratio = "0.5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.batch_ratio = "0.2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.total_data_usage_ratio = "0.2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # opt.total_data_usage_ratio = "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # opt.batch_ratio = "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt.PAD = True</t>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str 1 validation 함수 : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>สวัสดี</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>for 반복 안하고 바로 여기로 넘어와 버렸음 length_of_data : 1</t>
+  </si>
+  <si>
+    <t>recognition.py -&gt; 잘 될때 로그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8899,7 +11587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8972,8 +11660,42 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9016,6 +11738,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -9046,7 +11804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9112,6 +11870,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10134,16 +12922,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4467225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3047143</xdr:colOff>
+      <xdr:colOff>770668</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>161407</xdr:rowOff>
+      <xdr:rowOff>123307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10166,8 +12954,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8372475" y="9848850"/>
+          <a:off x="8258175" y="10020300"/>
           <a:ext cx="6857143" cy="4142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>521790</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>209471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B5F86F-5C99-717D-900A-D4D063760710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="21374100"/>
+          <a:ext cx="16676190" cy="628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10497,6 +13329,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6189842-501E-9190-B2E9-BD1D2DF7ECD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16676190" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>36014</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5318C8-344C-792F-4327-37678B7869F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="1257300"/>
+          <a:ext cx="16685714" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283805</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DDF62F-3BCA-ABCF-BB8F-EE21DA4648E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="9639300"/>
+          <a:ext cx="15561905" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -10932,7 +13901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ADDD08-D5E1-4324-8851-DA01C47ED04E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -10945,13 +13914,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10978,6 +13947,1098 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F109A335-562B-4DF0-AD6B-AD73E6866F7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0111C7-10AF-408C-B13F-61D9F0390FF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63F2BAA-DAD0-490A-9F58-84F0D3C74E92}">
+  <dimension ref="B1:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="70.25" customWidth="1"/>
+    <col min="2" max="2" width="119.5" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="115.5">
+      <c r="B29" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E44B279-33E5-435A-A6C6-898265DB03AA}">
+  <dimension ref="A1:D92"/>
+  <sheetViews>
+    <sheetView topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="82.75" customWidth="1"/>
+    <col min="2" max="2" width="79.625" customWidth="1"/>
+    <col min="3" max="3" width="95.375" customWidth="1"/>
+    <col min="4" max="4" width="132.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="D32" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2D83EA-6B66-4265-B7AA-79B615866217}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="99" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA0637C-8A00-44DD-A7FF-C83B082D3BC1}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="75.75" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2915AF-CB11-4FAE-989A-9D78D1499796}">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="83.625" customWidth="1"/>
+    <col min="2" max="2" width="79.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B12" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>601</v>
+      </c>
+      <c r="B16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>592</v>
+      </c>
+      <c r="B21" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
   <dimension ref="A1:J128"/>
@@ -11465,8 +15526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B88D8A2-60F7-4F2C-9569-CDE8242137D4}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:A172"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11508,7 +15569,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -11585,7 +15646,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -11600,7 +15661,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -11610,7 +15671,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11620,237 +15681,237 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -11891,57 +15952,57 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -11951,72 +16012,72 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -12026,47 +16087,47 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -12076,92 +16137,92 @@
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:1">
@@ -12186,27 +16247,27 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -12292,7 +16353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC86038-28A6-4022-83F9-39DB158E235D}">
   <dimension ref="A1:B583"/>
   <sheetViews>
-    <sheetView topLeftCell="A515" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -12305,17 +16366,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12442,7 +16503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E2975F-C0F4-4FE3-BB52-F96E2C5B81F8}">
   <dimension ref="A2:A132"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -12619,7 +16680,7 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -12698,7 +16759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB88847-1475-47F1-A75A-3425AE1C71A8}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -12711,58 +16772,58 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -12770,7 +16831,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -12778,55 +16839,55 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -12837,48 +16898,48 @@
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -12886,47 +16947,47 @@
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s">
         <v>131</v>
@@ -12934,506 +16995,506 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s">
         <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
         <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C58" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="C71" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -13447,93 +17508,93 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="76.625" customWidth="1"/>
+    <col min="1" max="1" width="75.375" customWidth="1"/>
     <col min="2" max="2" width="69.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -13541,15 +17602,15 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B27" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -13557,20 +17618,20 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -13578,7 +17639,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -13586,20 +17647,20 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B34" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -13607,7 +17668,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -13615,12 +17676,12 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -13656,291 +17717,291 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C270C7-A97D-4998-A3DC-3BCE9CF263E7}">
-  <dimension ref="B1:F89"/>
+  <dimension ref="B1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D14"/>
+    <sheetView topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="49.75" customWidth="1"/>
     <col min="2" max="2" width="60.125" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="3" max="3" width="78.375" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="C2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="C13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="C33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="C35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="C37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="C38" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="C40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="C42" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="C43" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="C45" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="C47" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F47" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="19" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="19" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="19" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="19" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="3:3">
@@ -13948,32 +18009,107 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="21" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>459</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13300F68-3BF9-4AB4-81E7-79AAC1B46DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5803CE-08B3-4A77-8F6F-EA0CB4B4FBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="735" windowWidth="27315" windowHeight="13995" tabRatio="831" firstSheet="8" activeTab="17" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="1080" yWindow="735" windowWidth="27315" windowHeight="13995" tabRatio="831" activeTab="1" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="641">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11804,7 +11804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11878,9 +11878,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13766,7 +13763,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13980,7 +13977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63F2BAA-DAD0-490A-9F58-84F0D3C74E92}">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -14080,7 +14077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E44B279-33E5-435A-A6C6-898265DB03AA}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="D70" workbookViewId="0">
+    <sheetView topLeftCell="D55" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
@@ -14099,7 +14096,7 @@
       <c r="B1" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" t="s">
         <v>533</v>
       </c>
@@ -14127,7 +14124,7 @@
       <c r="B5" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" t="s">
         <v>539</v>
       </c>
       <c r="D5" t="s">
@@ -14141,7 +14138,7 @@
       <c r="B6" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" t="s">
         <v>538</v>
       </c>
       <c r="D6" t="s">
@@ -14155,7 +14152,7 @@
       <c r="B7" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" t="s">
         <v>109</v>
       </c>
       <c r="D7" t="s">
@@ -14283,7 +14280,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>544</v>
       </c>
     </row>
@@ -14303,7 +14300,7 @@
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>550</v>
       </c>
     </row>
@@ -14348,7 +14345,7 @@
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>551</v>
       </c>
     </row>
@@ -14378,7 +14375,7 @@
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>555</v>
       </c>
     </row>
@@ -14581,7 +14578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2915AF-CB11-4FAE-989A-9D78D1499796}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -14592,10 +14589,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>604</v>
       </c>
     </row>
@@ -15043,8 +15040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106:J128"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15080,11 +15077,11 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+      <c r="B2" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1110</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -15104,11 +15101,11 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1110</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -15128,11 +15125,11 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
+      <c r="B4" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1110</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -15526,7 +15523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B88D8A2-60F7-4F2C-9569-CDE8242137D4}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -16503,7 +16500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E2975F-C0F4-4FE3-BB52-F96E2C5B81F8}">
   <dimension ref="A2:A132"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5803CE-08B3-4A77-8F6F-EA0CB4B4FBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14273848-D00E-4A96-9DFF-3101C4937774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="735" windowWidth="27315" windowHeight="13995" tabRatio="831" activeTab="1" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="270" yWindow="300" windowWidth="12525" windowHeight="13995" tabRatio="831" activeTab="1" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="646">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11580,6 +11580,26 @@
   </si>
   <si>
     <t>recognition.py -&gt; 잘 될때 로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1410 * 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110 * 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1410 * 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110 * 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11695,7 +11715,7 @@
       <charset val="222"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11774,6 +11794,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -11804,7 +11830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11898,6 +11924,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11965,14 +12000,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>75371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13760,10 +13795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27078D-FF8D-48AE-A37D-F7DD4585FB4D}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13885,6 +13920,98 @@
         <v>7</v>
       </c>
       <c r="G5" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
         <v>0.18</v>
       </c>
     </row>
@@ -15038,10 +15165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15325,190 +15452,667 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="43" spans="8:8">
-      <c r="H43">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="75" spans="10:10" ht="17.25">
-      <c r="J75" s="9" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="31" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="31">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1410</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1110</v>
+      </c>
+      <c r="D22" s="32">
+        <v>9</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0.34</v>
+      </c>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1410</v>
+      </c>
+      <c r="C33" s="32">
+        <v>1110</v>
+      </c>
+      <c r="D33" s="32">
+        <v>9</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17.25">
+      <c r="J46" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="10:10">
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" spans="10:10" ht="17.25">
-      <c r="J77" s="11" t="s">
+    <row r="47" spans="1:10">
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.25">
+      <c r="J48" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="10:10" ht="17.25">
-      <c r="J78" s="12"/>
-    </row>
-    <row r="79" spans="10:10" ht="17.25">
-      <c r="J79" s="13" t="s">
+    <row r="49" spans="10:10" ht="17.25">
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="10:10" ht="17.25">
+      <c r="J50" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="10:10" ht="17.25">
-      <c r="J80" s="11" t="s">
+    <row r="51" spans="10:10" ht="17.25">
+      <c r="J51" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="10:10" ht="17.25">
-      <c r="J81" s="12"/>
-    </row>
-    <row r="82" spans="10:10" ht="17.25">
-      <c r="J82" s="13" t="s">
+    <row r="52" spans="10:10" ht="17.25">
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="10:10" ht="17.25">
+      <c r="J53" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="10:10" ht="17.25">
-      <c r="J83" s="11" t="s">
+    <row r="54" spans="10:10" ht="17.25">
+      <c r="J54" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="10:10" ht="17.25">
-      <c r="J84" s="12"/>
-    </row>
-    <row r="85" spans="10:10" ht="17.25">
-      <c r="J85" s="13" t="s">
+    <row r="55" spans="10:10" ht="17.25">
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="10:10" ht="17.25">
+      <c r="J56" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="10:10">
-      <c r="J89" t="s">
+    <row r="60" spans="10:10">
+      <c r="J60" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="10:10">
       <c r="J90" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="10:10">
       <c r="J91" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="10:10">
       <c r="J92" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="10:10">
       <c r="J94" t="s">
-        <v>64</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="10:10">
       <c r="J96" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="10:10">
       <c r="J98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="10:10">
-      <c r="J100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="10:10">
-      <c r="J102" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="10:10">
-      <c r="J104" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="10:10">
-      <c r="J106" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" spans="10:10">
-      <c r="J108" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="10:10">
-      <c r="J110" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="10:10">
-      <c r="J111" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="10:10">
-      <c r="J112" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="10:10">
-      <c r="J114" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="115" spans="10:10">
-      <c r="J115" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="116" spans="10:10">
-      <c r="J116" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" spans="10:10">
-      <c r="J117" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="119" spans="10:10">
-      <c r="J119" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="10:10">
-      <c r="J120" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="10:10">
-      <c r="J121" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="123" spans="10:10">
-      <c r="J123" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" spans="10:10">
-      <c r="J124" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="10:10">
-      <c r="J125" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="127" spans="10:10">
-      <c r="J127" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="10:10">
-      <c r="J128" t="s">
+    <row r="99" spans="10:10">
+      <c r="J99" t="s">
         <v>86</v>
       </c>
     </row>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14273848-D00E-4A96-9DFF-3101C4937774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CC2C75-9F13-44AF-A41F-05E2AA92B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="300" windowWidth="12525" windowHeight="13995" tabRatio="831" activeTab="1" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="1185" yWindow="990" windowWidth="27570" windowHeight="13995" tabRatio="831" firstSheet="14" activeTab="18" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="LMDB 로 테스트시" sheetId="17" r:id="rId16"/>
     <sheet name="main.py 에서 test.py 임포트시" sheetId="18" r:id="rId17"/>
     <sheet name="opt 될때_안 될때 비교" sheetId="19" r:id="rId18"/>
+    <sheet name="0226_dtrb_pythonlib_비교" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="671">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,10 +398,6 @@
   </si>
   <si>
     <t>6000_Attn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000_ctc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11602,12 +11599,400 @@
     <t>추가후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1000_ctc Train loss: 3.93178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF56A8F5"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>recognizer_predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6F737A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, converter, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6F737A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_loader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6F737A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_max_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>, \</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6F737A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ignore_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6F737A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>char_group_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6F737A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>decoder='greedy'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6F737A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>beamWidth=5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>, device=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t># print(f'{current_path} recognizer_predict model : {model}')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>f'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>current_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> recogniton.py recognizer_predict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> converter : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>converter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>from custom.models.model_vi import CustomModel</t>
+  </si>
+  <si>
+    <t>recognition.py</t>
+  </si>
+  <si>
+    <t>def get_text(character, imgH, imgW, recognizer, converter, image_list, \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ignore_char='', decoder='greedy', beamWidth=5, batch_size=1, contrast_ths=0.1, \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             adjust_contrast=0.5, filter_ths=0.003, workers=1, device='cpu'):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_loader = torch.utils.data.DataLoader(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        num_workers=int(workers), collate_fn=AlignCollate_normal, pin_memory=True)</t>
+  </si>
+  <si>
+    <t>result1 = recognizer_predict(recognizer, converter, test_loader, batch_max_length, \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 ignore_idx, char_group_idx, decoder, beamWidth, device=device)</t>
+  </si>
+  <si>
+    <t>test.py validation 함수  preds_index  : tensor([[303, 267,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,   0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0,   0,   0,   0,   0,   0,   0,   0,   0,   0]], device='cuda:0')</t>
+  </si>
+  <si>
+    <t>test.py validation 함수 preds_str 1 validation 함수 : ['ệả']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.py validation 함수  preds = model(image, text_for_pred) preds.shape: torch.Size([1, 24, 355])</t>
+  </si>
+  <si>
+    <t>test.py validation 함수 labels : ['ngôn ngữ']</t>
+  </si>
+  <si>
+    <t>test.py validation 함수  length_of_data 1</t>
+  </si>
+  <si>
+    <t>test.py validation 함수  preds_str  : ['ệả']</t>
+  </si>
+  <si>
+    <t>test.py validation  len(labels) : 1</t>
+  </si>
+  <si>
+    <t>test.py validation  preds_str : ['ệả']</t>
+  </si>
+  <si>
+    <t>dtrb -&gt; test.py 로 테스트시 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythonlib -&gt; 학습 시킨 이미지로 테스트시 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythonlib -&gt; 학습 시킨 이미지와 크기 다른 이미지로 테스트시 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11714,8 +12099,51 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCF8E6D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6F737A"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF7A7E85"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF8888C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11800,6 +12228,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -11830,7 +12264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11927,10 +12361,19 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13951,10 +14394,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -13974,10 +14417,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -13997,10 +14440,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -14038,13 +14481,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>437</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -14117,80 +14560,80 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="115.5">
       <c r="B29" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -14202,10 +14645,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E44B279-33E5-435A-A6C6-898265DB03AA}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14218,417 +14661,437 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>523</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>524</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="D17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
       <c r="D23" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="D26" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="D32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="32" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="33" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="33" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="34" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -14652,12 +15115,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -14682,17 +15145,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -14705,7 +15168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2915AF-CB11-4FAE-989A-9D78D1499796}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -14717,217 +15180,217 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>603</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -14935,17 +15398,17 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -14953,17 +15416,17 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -14971,32 +15434,32 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -15004,17 +15467,17 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -15022,17 +15485,17 @@
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -15040,17 +15503,17 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="2:2">
@@ -15058,102 +15521,102 @@
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -15163,11 +15626,185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B8B08-44F2-4AB1-A863-548DF7AB8964}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="87.5" customWidth="1"/>
+    <col min="2" max="2" width="9" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="35" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="35" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="35" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="35" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="36"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="36" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="36"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="36" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="36" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="36" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D33886-4C31-4FF1-A5BF-2AB806EC58A0}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -15464,7 +16101,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15495,7 +16132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -15518,7 +16155,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -15541,7 +16178,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -15564,7 +16201,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -15587,7 +16224,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -15610,101 +16247,99 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="2">
         <v>1410</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="2">
         <v>1110</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="2">
         <v>9</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="2">
         <v>0.05</v>
       </c>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="32" t="s">
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="2">
         <v>0.34</v>
       </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>642</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>644</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -15727,7 +16362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -15750,7 +16385,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -15773,7 +16408,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -15796,7 +16431,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -15819,7 +16454,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -15843,94 +16478,94 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="2">
         <v>1410</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="2">
         <v>1110</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="2">
         <v>9</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="2">
         <v>0.34</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>642</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>644</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -16170,7 +16805,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -16247,7 +16882,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -16262,7 +16897,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -16272,247 +16907,247 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -16553,327 +17188,327 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -16954,8 +17589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC86038-28A6-4022-83F9-39DB158E235D}">
   <dimension ref="A1:B583"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B455" workbookViewId="0">
+      <selection activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16967,17 +17602,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -17070,27 +17705,27 @@
     </row>
     <row r="423" spans="2:2">
       <c r="B423" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="460" spans="2:2">
       <c r="B460" s="2" t="s">
-        <v>92</v>
+        <v>645</v>
       </c>
     </row>
     <row r="500" spans="2:2">
       <c r="B500" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="542" spans="2:2">
       <c r="B542" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -17116,237 +17751,237 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -17360,7 +17995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB88847-1475-47F1-A75A-3425AE1C71A8}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -17373,58 +18008,58 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>288</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -17432,7 +18067,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -17440,55 +18075,55 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -17499,603 +18134,603 @@
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C69" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C70" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="C71" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -18108,7 +18743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5F9E80-3231-4B10-82AC-97B82BF26B59}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -18120,82 +18755,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -18203,15 +18838,15 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -18219,20 +18854,20 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -18240,7 +18875,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -18248,20 +18883,20 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -18269,7 +18904,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -18277,12 +18912,12 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -18320,7 +18955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C270C7-A97D-4998-A3DC-3BCE9CF263E7}">
   <dimension ref="B1:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="B100" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
@@ -18334,275 +18969,275 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="C2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="C13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="C33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="C35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="C37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="C38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="C40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="C42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="C43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="C45" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="C47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="3:3">
@@ -18610,107 +19245,107 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/ocr_test/회의/0106/회의_0116.xlsx
+++ b/ocr_test/회의/0106/회의_0116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\회의\0106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CC2C75-9F13-44AF-A41F-05E2AA92B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47196D4-5A0E-4C3D-AEA4-F2BD85C3D0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="990" windowWidth="27570" windowHeight="13995" tabRatio="831" firstSheet="14" activeTab="18" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
+    <workbookView xWindow="1185" yWindow="0" windowWidth="27570" windowHeight="15600" tabRatio="831" firstSheet="14" activeTab="18" xr2:uid="{5F793BD6-874D-4BA0-AFC2-C181A52AE675}"/>
   </bookViews>
   <sheets>
     <sheet name="vi" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="690">
   <si>
     <t>kernel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11955,29 +11955,16 @@
     <t xml:space="preserve">           0,   0,   0,   0,   0,   0,   0,   0,   0,   0]], device='cuda:0')</t>
   </si>
   <si>
-    <t>test.py validation 함수 preds_str 1 validation 함수 : ['ệả']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> test.py validation 함수  preds = model(image, text_for_pred) preds.shape: torch.Size([1, 24, 355])</t>
   </si>
   <si>
-    <t>test.py validation 함수 labels : ['ngôn ngữ']</t>
-  </si>
-  <si>
     <t>test.py validation 함수  length_of_data 1</t>
   </si>
   <si>
-    <t>test.py validation 함수  preds_str  : ['ệả']</t>
-  </si>
-  <si>
     <t>test.py validation  len(labels) : 1</t>
   </si>
   <si>
     <t>test.py validation  preds_str : ['ệả']</t>
-  </si>
-  <si>
-    <t>dtrb -&gt; test.py 로 테스트시 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pythonlib -&gt; 학습 시킨 이미지로 테스트시 :</t>
@@ -11985,6 +11972,804 @@
   </si>
   <si>
     <t>pythonlib -&gt; 학습 시킨 이미지와 크기 다른 이미지로 테스트시 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtrb -&gt; test.py 로 테스트시 ( imgH : 32, imgW : 100 ) :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.py validation 함수  length_of_data 1</t>
+  </si>
+  <si>
+    <t>test.py validation  preds_str : ['ďgg\nớg``\nß``\ng`mgglßß\nộ']</t>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  preds_str  : [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ệả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  preds_str  : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ď</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gg\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g``\nß``\ng`mgglßß\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str 1 validation 함수 : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ệả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str 1 validation 함수 : [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ệả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.py validation 함수  length_of_data 2</t>
+  </si>
+  <si>
+    <t>dtrb -&gt; test.py 로 테스트시 ( imgH : 158, imgW : 436  ) :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  preds_str  : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ď</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gg\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g``\nß``\ng`mgglßß\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ď</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ß\nß\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\ngß\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dtrb -&gt; test.py 로 테스트시 (  436 / 158, 872 / 316 imgH : 316, imgW : 872  -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학습시킨 이미지 크기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngôn ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.py validation  len(labels) : 2</t>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  preds_str  : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gß\nßml\ngtßlll\nlhlhlmthml\nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ttm\ntlßll-t', 'G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g\ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ạấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ml\nlßll\nlhlhmlhmhm\nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tm\ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ml\ngßll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\nt'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtrb -&gt; test.py 로 테스트시 (  436 / 158, 872 / 316 imgH : 158, imgW : 436 ) :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dtrb -&gt; test.py 로 테스트시 (  436 / 158, 872 / 316 imgH : 111, imgW :141  -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학습시킨 이미지 전처리 크기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수  preds_str  : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mfóm\nmf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 'Mfóm\nmf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.py validation 함수  preds_index  : tensor([[ 46,   0,   0,   0,   0,  71,  71,  71,  71, 147, 147,   0,   0,   0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0,  78,  78, 182, 182,  78,  78,  78,  71,  71,  71,   0,   0,   0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0,   0,   0,   0,   0, 341]], device='cuda:0')</t>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 preds_str 1 validation 함수 : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mfóm\nmf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test.py validation 함수 labels : ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngôn ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pythonlib -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">학습시킨 이미지 전처리 크기 ( 872 / 316 -&gt; 141 / 111 ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11992,7 +12777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12142,8 +12927,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12234,6 +13025,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -12264,7 +13073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12374,6 +13183,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15628,15 +16446,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B8B08-44F2-4AB1-A863-548DF7AB8964}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="87.5" customWidth="1"/>
+    <col min="1" max="1" width="146" customWidth="1"/>
     <col min="2" max="2" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15707,7 +16525,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -15725,12 +16543,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="35" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -15740,7 +16558,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -15755,12 +16573,12 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="35" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="35" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -15768,7 +16586,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -15776,22 +16594,153 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="36" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="36" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="36" t="s">
-        <v>667</v>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="26"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="26"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="26"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="29" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="29" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A55" s="29" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="37" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="37"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="37" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="37" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="37" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="37"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="38"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="38" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="38" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="38" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="39" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="39"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="39" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="39" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="39" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="39" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="39" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
